--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>494706.470491929</v>
+        <v>508432.8286293471</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.7116981491</v>
+        <v>512047.7116981492</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.711698149</v>
+        <v>512047.7116981489</v>
       </c>
       <c r="D2" t="n">
         <v>512047.711698149</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42146.23197890096</v>
+        <v>42146.231978901</v>
       </c>
       <c r="C6" t="n">
-        <v>42146.23197890091</v>
+        <v>42146.23197890077</v>
       </c>
       <c r="D6" t="n">
-        <v>42146.23197890085</v>
+        <v>42146.23197890088</v>
       </c>
       <c r="E6" t="n">
-        <v>-47963.95092073864</v>
+        <v>-47963.95092073869</v>
       </c>
       <c r="F6" t="n">
         <v>85136.04907926137</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>508432.8286293471</v>
+        <v>424647.4268677221</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.7116981492</v>
+        <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
+        <v>512047.7116981491</v>
+      </c>
+      <c r="D2" t="n">
         <v>512047.7116981489</v>
-      </c>
-      <c r="D2" t="n">
-        <v>512047.711698149</v>
       </c>
       <c r="E2" t="n">
         <v>142900.6851873295</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42146.231978901</v>
+        <v>42102.0962002197</v>
       </c>
       <c r="C6" t="n">
-        <v>42146.23197890077</v>
+        <v>42102.09620021981</v>
       </c>
       <c r="D6" t="n">
-        <v>42146.23197890088</v>
+        <v>42102.09620021964</v>
       </c>
       <c r="E6" t="n">
-        <v>-47963.95092073869</v>
+        <v>-62773.9677598526</v>
       </c>
       <c r="F6" t="n">
-        <v>85136.04907926137</v>
+        <v>70326.03224014747</v>
       </c>
       <c r="G6" t="n">
-        <v>85136.04907926137</v>
+        <v>70326.03224014747</v>
       </c>
       <c r="H6" t="n">
-        <v>85136.04907926137</v>
+        <v>70326.03224014747</v>
       </c>
       <c r="I6" t="n">
-        <v>85136.04907926137</v>
+        <v>70326.03224014747</v>
       </c>
       <c r="J6" t="n">
-        <v>85136.04907926137</v>
+        <v>70326.03224014747</v>
       </c>
       <c r="K6" t="n">
-        <v>85136.04907926137</v>
+        <v>70326.03224014747</v>
       </c>
       <c r="L6" t="n">
-        <v>85136.04907926137</v>
+        <v>70326.03224014747</v>
       </c>
       <c r="M6" t="n">
-        <v>85136.04907926137</v>
+        <v>70326.03224014747</v>
       </c>
       <c r="N6" t="n">
-        <v>85136.04907926137</v>
+        <v>70326.03224014747</v>
       </c>
       <c r="O6" t="n">
-        <v>85136.04907926137</v>
+        <v>70326.03224014747</v>
       </c>
       <c r="P6" t="n">
-        <v>85136.04907926137</v>
+        <v>70326.03224014747</v>
       </c>
     </row>
   </sheetData>
